--- a/scripts/EPSPS_core_KPI_SHMCC.xlsx
+++ b/scripts/EPSPS_core_KPI_SHMCC.xlsx
@@ -171,8 +171,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -728,7 +729,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,8 +859,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -908,8 +911,29 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="42" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="33" borderId="10" xfId="45" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="33" borderId="10" xfId="45" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="33" borderId="10" xfId="45" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="33" borderId="10" xfId="45" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="33" borderId="10" xfId="45" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="33" borderId="10" xfId="45" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="33" borderId="10" xfId="45" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="47">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -929,6 +953,7 @@
     <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="Normal 2" xfId="42"/>
+    <cellStyle name="Normal 2 2" xfId="45"/>
     <cellStyle name="Normal 3" xfId="43"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
@@ -938,6 +963,7 @@
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 12" xfId="44"/>
+    <cellStyle name="常规 12 2" xfId="46"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -958,14 +984,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1258,7 +1276,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1268,8 +1286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1380,18 +1398,18 @@
       <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="9">
-        <v>1570000</v>
+      <c r="D3" s="20">
+        <v>1360000</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="9">
-        <v>2300000</v>
+      <c r="G3" s="21">
+        <v>2720000</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="9">
-        <v>1570000</v>
+      <c r="J3" s="22">
+        <v>1360000</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
@@ -1410,18 +1428,18 @@
       <c r="C4" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="9">
-        <v>1570000</v>
+      <c r="D4" s="20">
+        <v>1360000</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="9">
-        <v>2300000</v>
+      <c r="G4" s="21">
+        <v>2720000</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="9">
-        <v>1570000</v>
+      <c r="J4" s="22">
+        <v>1360000</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -1440,18 +1458,18 @@
       <c r="C5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="9">
-        <v>1570000</v>
+      <c r="D5" s="20">
+        <v>1360000</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="9">
-        <v>2300000</v>
+      <c r="G5" s="21">
+        <v>2720000</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="9">
-        <v>1570000</v>
+      <c r="J5" s="22">
+        <v>1360000</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -1470,18 +1488,18 @@
       <c r="C6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="9">
-        <v>1570000</v>
+      <c r="D6" s="20">
+        <v>1360000</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="9">
-        <v>2300000</v>
+      <c r="G6" s="21">
+        <v>2720000</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="9">
-        <v>1570000</v>
+      <c r="J6" s="22">
+        <v>1360000</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1500,18 +1518,18 @@
       <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="9">
-        <v>1570000</v>
+      <c r="D7" s="20">
+        <v>1360000</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="9">
-        <v>2300000</v>
+      <c r="G7" s="21">
+        <v>2720000</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="9">
-        <v>1570000</v>
+      <c r="J7" s="22">
+        <v>1360000</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1530,18 +1548,18 @@
       <c r="C8" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="9">
-        <v>1570000</v>
+      <c r="D8" s="20">
+        <v>1360000</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="9">
-        <v>2300000</v>
+      <c r="G8" s="21">
+        <v>2720000</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="9">
-        <v>1570000</v>
+      <c r="J8" s="22">
+        <v>1360000</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -1560,18 +1578,18 @@
       <c r="C9" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="9">
-        <v>1570000</v>
+      <c r="D9" s="20">
+        <v>1360000</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="9">
-        <v>2300000</v>
+      <c r="G9" s="21">
+        <v>2720000</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="9">
-        <v>1570000</v>
+      <c r="J9" s="22">
+        <v>1360000</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -1590,18 +1608,18 @@
       <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="9">
-        <v>1570000</v>
+      <c r="D10" s="20">
+        <v>1360000</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="9">
-        <v>2300000</v>
+      <c r="G10" s="21">
+        <v>2720000</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="9">
-        <v>1570000</v>
+      <c r="J10" s="22">
+        <v>1360000</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -1631,8 +1649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1761,23 +1779,23 @@
       <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="9">
-        <v>2000000</v>
+      <c r="D3" s="23">
+        <v>1280000</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
-      <c r="G3" s="9">
-        <v>2000000</v>
+      <c r="G3" s="24">
+        <v>1170000</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="9">
-        <v>2000000</v>
+      <c r="J3" s="25">
+        <v>1280000</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="9">
-        <v>80</v>
+      <c r="M3" s="26">
+        <v>40</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -1796,23 +1814,23 @@
       <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="9">
-        <v>2000000</v>
+      <c r="D4" s="23">
+        <v>1280000</v>
       </c>
       <c r="E4" s="6"/>
       <c r="F4" s="6"/>
-      <c r="G4" s="9">
-        <v>2000000</v>
+      <c r="G4" s="24">
+        <v>1170000</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="9">
-        <v>2000000</v>
+      <c r="J4" s="25">
+        <v>1280000</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="9">
-        <v>80</v>
+      <c r="M4" s="26">
+        <v>40</v>
       </c>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -1833,23 +1851,23 @@
       <c r="C5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="9">
-        <v>2000000</v>
+      <c r="D5" s="23">
+        <v>1280000</v>
       </c>
       <c r="E5" s="6"/>
       <c r="F5" s="6"/>
-      <c r="G5" s="9">
-        <v>2000000</v>
+      <c r="G5" s="24">
+        <v>1170000</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="9">
-        <v>2000000</v>
+      <c r="J5" s="25">
+        <v>1280000</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="9">
-        <v>80</v>
+      <c r="M5" s="26">
+        <v>40</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -1870,23 +1888,23 @@
       <c r="C6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="9">
-        <v>2000000</v>
+      <c r="D6" s="23">
+        <v>1280000</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="6"/>
-      <c r="G6" s="9">
-        <v>2000000</v>
+      <c r="G6" s="24">
+        <v>1170000</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="9">
-        <v>2000000</v>
+      <c r="J6" s="25">
+        <v>1280000</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="9">
-        <v>80</v>
+      <c r="M6" s="26">
+        <v>40</v>
       </c>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -1905,23 +1923,23 @@
       <c r="C7" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="9">
-        <v>2000000</v>
+      <c r="D7" s="23">
+        <v>1280000</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="9">
-        <v>2000000</v>
+      <c r="G7" s="24">
+        <v>1170000</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="9">
-        <v>2000000</v>
+      <c r="J7" s="25">
+        <v>1280000</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="9">
-        <v>80</v>
+      <c r="M7" s="26">
+        <v>40</v>
       </c>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -1940,23 +1958,23 @@
       <c r="C8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="9">
-        <v>2000000</v>
+      <c r="D8" s="23">
+        <v>1280000</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6"/>
-      <c r="G8" s="9">
-        <v>2000000</v>
+      <c r="G8" s="24">
+        <v>1170000</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="9">
-        <v>2000000</v>
+      <c r="J8" s="25">
+        <v>1280000</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="9">
-        <v>80</v>
+      <c r="M8" s="26">
+        <v>40</v>
       </c>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -1975,23 +1993,23 @@
       <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9">
-        <v>2000000</v>
+      <c r="D9" s="23">
+        <v>1280000</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
-      <c r="G9" s="9">
-        <v>2000000</v>
+      <c r="G9" s="24">
+        <v>1170000</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="9">
-        <v>2000000</v>
+      <c r="J9" s="25">
+        <v>1280000</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="9">
-        <v>80</v>
+      <c r="M9" s="26">
+        <v>40</v>
       </c>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -2012,23 +2030,23 @@
       <c r="C10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="9">
-        <v>2000000</v>
+      <c r="D10" s="23">
+        <v>1280000</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
-      <c r="G10" s="9">
-        <v>2000000</v>
+      <c r="G10" s="24">
+        <v>1170000</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="9">
-        <v>2000000</v>
+      <c r="J10" s="25">
+        <v>1280000</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="9">
-        <v>80</v>
+      <c r="M10" s="26">
+        <v>40</v>
       </c>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -2048,23 +2066,23 @@
       <c r="C11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="23">
         <v>2000000</v>
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
-      <c r="G11" s="9">
+      <c r="G11" s="24">
         <v>2000000</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="9">
+      <c r="J11" s="25">
         <v>2000000</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="9">
-        <v>80</v>
+      <c r="M11" s="26">
+        <v>100</v>
       </c>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -2084,23 +2102,23 @@
       <c r="C12" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="23">
         <v>2000000</v>
       </c>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
-      <c r="G12" s="9">
+      <c r="G12" s="24">
         <v>2000000</v>
       </c>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
-      <c r="J12" s="9">
+      <c r="J12" s="25">
         <v>2000000</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="9">
-        <v>80</v>
+      <c r="M12" s="26">
+        <v>100</v>
       </c>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -2120,23 +2138,23 @@
       <c r="C13" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="23">
         <v>2000000</v>
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
-      <c r="G13" s="9">
+      <c r="G13" s="24">
         <v>2000000</v>
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="9">
+      <c r="J13" s="25">
         <v>2000000</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="9">
-        <v>80</v>
+      <c r="M13" s="26">
+        <v>100</v>
       </c>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -2157,23 +2175,23 @@
       <c r="C14" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="23">
         <v>2000000</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
-      <c r="G14" s="9">
+      <c r="G14" s="24">
         <v>2000000</v>
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="9">
+      <c r="J14" s="25">
         <v>2000000</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="9">
-        <v>80</v>
+      <c r="M14" s="26">
+        <v>100</v>
       </c>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -2194,23 +2212,23 @@
       <c r="C15" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="23">
         <v>2000000</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
-      <c r="G15" s="9">
+      <c r="G15" s="24">
         <v>2000000</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="9">
+      <c r="J15" s="25">
         <v>2000000</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="9">
-        <v>80</v>
+      <c r="M15" s="26">
+        <v>100</v>
       </c>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -2246,8 +2264,8 @@
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="9">
-        <v>80</v>
+      <c r="M16" s="26">
+        <v>100</v>
       </c>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
